--- a/ip_addr_Konzept.xlsx
+++ b/ip_addr_Konzept.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\NVS-ZH\Konzepte\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28776" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>fa1</t>
   </si>
   <si>
-    <t>fa2</t>
-  </si>
-  <si>
     <t>10.0.0.4 /30</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>5: Firewall</t>
+  </si>
+  <si>
+    <t>e2</t>
   </si>
 </sst>
 </file>
@@ -759,19 +759,19 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
@@ -786,16 +786,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -806,47 +806,47 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -854,50 +854,50 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -905,53 +905,53 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
@@ -959,44 +959,44 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
